--- a/biology/Histoire de la zoologie et de la botanique/Robert_Lloyd_Praeger/Robert_Lloyd_Praeger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Lloyd_Praeger/Robert_Lloyd_Praeger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Lloyd Praeger, né le 25 août 1865 et mort le 5 mai 1953, est un naturaliste et écrivain irlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De confession unitariste, Robert Lloyd Praeger est né à Holywood, Comté de Down, et a grandi dans cette ville où il a fait ses études, d'abord à l'école de la Rev McAlister, puis dans la proche Sullivan Upper School. Il a travaillé à la Bibliothèque nationale d'Irlande à Dublin de 1893 à 1923. Il a co-fondé et édité le naturaliste irlandais (en), et a écrit des articles sur la flore et l'histoire naturelle de l'Irlande. Il a organisé l'enquête Lambay de 1905 à 1906 et de 1909 à 1915, la plus large enquête sur l'île de Clare. Il était ingénieur de qualification, bibliothécaire de profession et naturaliste par passion. Il est devenu le premier président de An Taisce, une association environnementale et du club alpin irlandais (en), en 1948 et a été président de l'Académie royale d'Irlande de 1931 à 1934.
 Il est enterré dans le cimetière de Deansgrange près de Dublin avec sa femme Hedwig.
@@ -544,7 +558,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Praeger, R.Ll. Irish Topographical Botany (ITB), Proceedings of the Royal Irish Academy, Vol. (23) 3rd. series, Vol. 7).
 Praeger, R.Ll. 1893. The Flora of County Armagh. Ir Nat.: II.
